--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132880.6649337839</v>
+        <v>6119.711064518845</v>
       </c>
     </row>
     <row r="7">
@@ -26328,10 +26328,10 @@
         <v>43002.96221257855</v>
       </c>
       <c r="G2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="H2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="I2" t="n">
         <v>43002.96221257855</v>
@@ -26343,13 +26343,13 @@
         <v>43002.96221257855</v>
       </c>
       <c r="L2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="M2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="N2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="O2" t="n">
         <v>43002.96221257855</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138404</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138404</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138404</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="E6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282682</v>
       </c>
       <c r="F6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="G6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="H6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="I6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="J6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="K6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="L6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="M6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="N6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="O6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="P6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282683</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6119.711064518845</v>
+        <v>120204.5695468574</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>43002.96221257855</v>
       </c>
       <c r="C2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="D2" t="n">
         <v>43002.96221257855</v>
@@ -26325,13 +26325,13 @@
         <v>43002.96221257855</v>
       </c>
       <c r="F2" t="n">
+        <v>43002.96221257856</v>
+      </c>
+      <c r="G2" t="n">
         <v>43002.96221257855</v>
       </c>
-      <c r="G2" t="n">
-        <v>43002.96221257856</v>
-      </c>
       <c r="H2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="I2" t="n">
         <v>43002.96221257855</v>
@@ -26343,16 +26343,16 @@
         <v>43002.96221257855</v>
       </c>
       <c r="L2" t="n">
+        <v>43002.96221257855</v>
+      </c>
+      <c r="M2" t="n">
+        <v>43002.96221257855</v>
+      </c>
+      <c r="N2" t="n">
+        <v>43002.96221257855</v>
+      </c>
+      <c r="O2" t="n">
         <v>43002.96221257856</v>
-      </c>
-      <c r="M2" t="n">
-        <v>43002.96221257856</v>
-      </c>
-      <c r="N2" t="n">
-        <v>43002.96221257857</v>
-      </c>
-      <c r="O2" t="n">
-        <v>43002.96221257855</v>
       </c>
       <c r="P2" t="n">
         <v>43002.96221257855</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21901.42258717317</v>
+        <v>-8265.816014141881</v>
       </c>
       <c r="C6" t="n">
-        <v>-21901.42258717317</v>
+        <v>-8265.816014141867</v>
       </c>
       <c r="D6" t="n">
-        <v>-21901.42258717317</v>
+        <v>-8265.816014141881</v>
       </c>
       <c r="E6" t="n">
-        <v>11726.17741282682</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="F6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="G6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="H6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="I6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="J6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="K6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="L6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="M6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="N6" t="n">
-        <v>11726.17741282684</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="O6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
       <c r="P6" t="n">
-        <v>11726.17741282683</v>
+        <v>25361.78398585812</v>
       </c>
     </row>
   </sheetData>
